--- a/PccuClub/Template/轉介內容歷程_template.xlsx
+++ b/PccuClub/Template/轉介內容歷程_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PushuData\2023\Project\Pccu\SRC3\PccuClub\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FCD604-3E68-47F2-A8C4-CD3A01F13B18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="格式_轉介單位紀錄表" sheetId="6" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>校安事件編號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,14 +76,18 @@
   </si>
   <si>
     <t>林大同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/05/10 13:12:15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,13 +115,6 @@
       <color rgb="FF212529"/>
       <name val="Source Sans Pro"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212529"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -156,7 +154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,9 +174,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,24 +455,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54" style="1" customWidth="1"/>
-    <col min="5" max="7" width="15.625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="15.6640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -500,30 +495,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5">
-        <v>45421.688888888886</v>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="5"/>
@@ -532,7 +527,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="5"/>
@@ -541,7 +536,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -550,7 +545,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -559,7 +554,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
